--- a/results/diff/data_diff.xlsx
+++ b/results/diff/data_diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/p_f_v_beerendonk_student_tue_nl/Documents/Desktop/final project/final_thesis/final_thesis_partitioning/results/diff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1276" documentId="11_F25DC773A252ABDACC104837699F7C7C5ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{560567E0-4E0A-4E8E-879F-7FD7D949C07F}"/>
+  <xr:revisionPtr revIDLastSave="1306" documentId="11_F25DC773A252ABDACC104837699F7C7C5ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4206B13-F07A-40B7-BC89-74A646176385}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tue_logo" sheetId="8" r:id="rId1"/>
@@ -145,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -159,10 +159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D884572-4488-4CD6-B46D-C18C46BA3D1D}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,8 +561,8 @@
         <v>4170.5171322822498</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>0</v>
       </c>
       <c r="B6" s="10">
@@ -575,16 +571,15 @@
       <c r="C6" s="12">
         <v>5</v>
       </c>
-      <c r="D6" s="14">
-        <v>0.97345648327883205</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0.256888848612981</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="D6" s="3">
+        <v>0.97345648327883205</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.256888848612981</v>
+      </c>
+      <c r="F6" s="5">
         <v>4162.8571250438599</v>
       </c>
-      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -667,7 +662,7 @@
         <v>4200.3042297363199</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.05</v>
       </c>
@@ -686,28 +681,26 @@
       <c r="F11" s="5">
         <v>4114.5210847854596</v>
       </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>0.05</v>
       </c>
       <c r="B12" s="10">
         <v>0.2</v>
       </c>
-      <c r="C12" s="13">
-        <v>5</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0.97345648327883205</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0.256888848612981</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.97345648327883205</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.256888848612981</v>
+      </c>
+      <c r="F12" s="5">
         <v>4180.76313829422</v>
       </c>
-      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -737,16 +730,16 @@
       <c r="B14" s="10">
         <v>0</v>
       </c>
-      <c r="C14" s="13">
-        <v>5</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0.97345648327883205</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0.256888848612981</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.97345648327883205</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.256888848612981</v>
+      </c>
+      <c r="F14" s="5">
         <v>4248.94202494621</v>
       </c>
     </row>
@@ -757,7 +750,7 @@
       <c r="B15" s="10">
         <v>0.05</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15">
         <v>5</v>
       </c>
       <c r="D15" s="3">
@@ -770,14 +763,14 @@
         <v>4111.06426215171</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>0.1</v>
       </c>
       <c r="B16" s="10">
         <v>0.1</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16">
         <v>5</v>
       </c>
       <c r="D16" s="3">
@@ -786,10 +779,10 @@
       <c r="E16" s="3">
         <v>0.256888848612981</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="5">
         <v>4139</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -800,7 +793,7 @@
       <c r="B17" s="10">
         <v>0.15</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17">
         <v>5</v>
       </c>
       <c r="D17" s="3">
@@ -820,7 +813,7 @@
       <c r="B18" s="10">
         <v>0.2</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18">
         <v>5</v>
       </c>
       <c r="D18" s="3">
@@ -843,9 +836,15 @@
       <c r="C19" s="6">
         <v>5</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="7">
+        <v>0.97345648327883205</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.256888848612981</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4335.3781917095102</v>
+      </c>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -855,7 +854,7 @@
       <c r="B20" s="10">
         <v>0</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" s="3">
@@ -868,26 +867,25 @@
         <v>4158.6772420406296</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>0.15</v>
       </c>
       <c r="B21" s="10">
         <v>0.05</v>
       </c>
-      <c r="C21" s="16">
-        <v>5</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0.97345648327883205</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0.256888848612981</v>
-      </c>
-      <c r="F21" s="15">
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.97345648327883205</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.256888848612981</v>
+      </c>
+      <c r="F21" s="5">
         <v>4140.27053236961</v>
       </c>
-      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -896,7 +894,7 @@
       <c r="B22" s="10">
         <v>0.1</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22">
         <v>5</v>
       </c>
       <c r="D22" s="3">
@@ -905,7 +903,7 @@
       <c r="E22" s="3">
         <v>0.256888848612981</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="5">
         <v>4200.0490465164103</v>
       </c>
     </row>
@@ -916,7 +914,7 @@
       <c r="B23" s="10">
         <v>0.15</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23">
         <v>5</v>
       </c>
       <c r="D23" s="3">
@@ -936,7 +934,7 @@
       <c r="B24" s="10">
         <v>0.2</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24">
         <v>5</v>
       </c>
       <c r="D24" s="3">
@@ -959,10 +957,15 @@
       <c r="C25" s="6">
         <v>5</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="D25" s="7">
+        <v>0.97345648327883205</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.256888848612981</v>
+      </c>
+      <c r="F25" s="8">
+        <v>4397.4737751483899</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -971,7 +974,7 @@
       <c r="B26" s="10">
         <v>0</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26">
         <v>5</v>
       </c>
       <c r="D26" s="3">
@@ -991,7 +994,7 @@
       <c r="B27" s="10">
         <v>0.05</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27">
         <v>5</v>
       </c>
       <c r="D27" s="3">
@@ -1011,7 +1014,7 @@
       <c r="B28" s="10">
         <v>0.1</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28">
         <v>5</v>
       </c>
       <c r="D28" s="3">
@@ -1031,7 +1034,7 @@
       <c r="B29" s="10">
         <v>0.15</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29">
         <v>5</v>
       </c>
       <c r="D29" s="3">
@@ -1051,7 +1054,7 @@
       <c r="B30" s="10">
         <v>0.2</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30">
         <v>5</v>
       </c>
       <c r="D30" s="3">
@@ -1074,19 +1077,25 @@
       <c r="C31" s="6">
         <v>5</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
+      <c r="D31" s="7">
+        <v>0.97345648327883205</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.256888848612981</v>
+      </c>
+      <c r="F31" s="8">
+        <v>4110.1316440105402</v>
+      </c>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
+      <c r="A32">
         <v>0.5</v>
       </c>
       <c r="B32" s="10">
         <v>0</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32">
         <v>5</v>
       </c>
       <c r="D32" s="3">
@@ -1100,13 +1109,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+      <c r="A33">
         <v>0.5</v>
       </c>
       <c r="B33" s="10">
         <v>0.05</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33">
         <v>5</v>
       </c>
       <c r="D33" s="3">
@@ -1120,13 +1129,13 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
+      <c r="A34">
         <v>0.5</v>
       </c>
       <c r="B34" s="10">
         <v>0.1</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34">
         <v>5</v>
       </c>
       <c r="D34" s="3">
@@ -1140,13 +1149,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
+      <c r="A35">
         <v>0.5</v>
       </c>
       <c r="B35" s="10">
         <v>0.15</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35">
         <v>5</v>
       </c>
       <c r="D35" s="3">
@@ -1160,13 +1169,13 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="16">
+      <c r="A36">
         <v>0.5</v>
       </c>
       <c r="B36" s="10">
         <v>0.2</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36">
         <v>5</v>
       </c>
       <c r="D36" s="3">
@@ -1180,18 +1189,24 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
+      <c r="A37">
         <v>0.5</v>
       </c>
       <c r="B37" s="10">
         <v>0.5</v>
       </c>
-      <c r="C37" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="16"/>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.97345648327883205</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.256888848612981</v>
+      </c>
+      <c r="F37" s="5">
+        <v>4148.3528196811603</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1202,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BBA9A7-2B7C-4387-98C3-2F7A367CB861}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1318,26 +1333,25 @@
         <v>60864.131023406902</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>0</v>
       </c>
       <c r="B6" s="10">
         <v>0.2</v>
       </c>
-      <c r="C6" s="13">
-        <v>6</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0.99511749339059896</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0.62814704998197801</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.99511749339059896</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.62814704998197801</v>
+      </c>
+      <c r="F6" s="5">
         <v>60772.206701993899</v>
       </c>
-      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -1440,26 +1454,25 @@
         <v>61063.301396369898</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>0.05</v>
       </c>
       <c r="B12" s="10">
         <v>0.2</v>
       </c>
-      <c r="C12" s="13">
-        <v>6</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0.99511749339059896</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0.62814704998197801</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.99511749339059896</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.62814704998197801</v>
+      </c>
+      <c r="F12" s="5">
         <v>61667.310186386101</v>
       </c>
-      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -1595,9 +1608,15 @@
       <c r="C19" s="6">
         <v>6</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="7">
+        <v>0.99511749339059896</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.62814704998197801</v>
+      </c>
+      <c r="F19" s="8">
+        <v>62692.723581790902</v>
+      </c>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1607,7 +1626,7 @@
       <c r="B20" s="10">
         <v>0</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20">
         <v>6</v>
       </c>
       <c r="D20" s="3">
@@ -1627,7 +1646,7 @@
       <c r="B21" s="10">
         <v>0.05</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21">
         <v>6</v>
       </c>
       <c r="D21" s="3">
@@ -1647,7 +1666,7 @@
       <c r="B22" s="10">
         <v>0.1</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22">
         <v>6</v>
       </c>
       <c r="D22" s="3">
@@ -1667,7 +1686,7 @@
       <c r="B23" s="10">
         <v>0.15</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23">
         <v>6</v>
       </c>
       <c r="D23" s="3">
@@ -1687,7 +1706,7 @@
       <c r="B24" s="10">
         <v>0.2</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24">
         <v>6</v>
       </c>
       <c r="D24" s="3">
@@ -1710,9 +1729,15 @@
       <c r="C25" s="6">
         <v>6</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
+      <c r="D25" s="7">
+        <v>0.99511749339059896</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.62814704998197801</v>
+      </c>
+      <c r="F25" s="8">
+        <v>62170.435747385003</v>
+      </c>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1722,7 +1747,7 @@
       <c r="B26" s="10">
         <v>0</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26">
         <v>6</v>
       </c>
       <c r="D26" s="3">
@@ -1742,7 +1767,7 @@
       <c r="B27" s="10">
         <v>0.05</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27">
         <v>6</v>
       </c>
       <c r="D27" s="3">
@@ -1825,19 +1850,25 @@
       <c r="C31" s="6">
         <v>6</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
+      <c r="D31" s="7">
+        <v>0.99511749339059896</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.62814704998197801</v>
+      </c>
+      <c r="F31" s="8">
+        <v>60613.6471817493</v>
+      </c>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
+      <c r="A32">
         <v>0.5</v>
       </c>
       <c r="B32" s="10">
         <v>0</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32">
         <v>6</v>
       </c>
       <c r="D32" s="3">
@@ -1851,13 +1882,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+      <c r="A33">
         <v>0.5</v>
       </c>
       <c r="B33" s="10">
         <v>0.05</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33">
         <v>6</v>
       </c>
       <c r="D33" s="3">
@@ -1871,13 +1902,13 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
+      <c r="A34">
         <v>0.5</v>
       </c>
       <c r="B34" s="10">
         <v>0.1</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34">
         <v>6</v>
       </c>
       <c r="D34" s="3">
@@ -1891,13 +1922,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
+      <c r="A35">
         <v>0.5</v>
       </c>
       <c r="B35" s="10">
         <v>0.15</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35">
         <v>6</v>
       </c>
       <c r="D35" s="3">
@@ -1911,7 +1942,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="16">
+      <c r="A36">
         <v>0.5</v>
       </c>
       <c r="B36" s="10">
@@ -1931,7 +1962,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
+      <c r="A37">
         <v>0.5</v>
       </c>
       <c r="B37" s="10">
@@ -1939,6 +1970,15 @@
       </c>
       <c r="C37">
         <v>6</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.99511749339059896</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.62814704998197801</v>
+      </c>
+      <c r="F37" s="5">
+        <v>60497.894125938401</v>
       </c>
     </row>
   </sheetData>
